--- a/port.xlsx
+++ b/port.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,80 +445,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>last_quote</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>last_xrate_quantity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>predicted_nav</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>percent_nav</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SECURITY_x.1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SECURITY_x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>OPTION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PX_LAST</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>STRIKE_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>EXPIRY_DATE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>SECURITY_y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DELTA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>GAMMA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PX_ASK</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>PX_BID</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>OPT_MULTIPLIER</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>OPEN_INT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TARGET_STRIKE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Moneyness</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Premium</t>
         </is>
@@ -531,13 +561,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>80753</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00477520510000172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1554495.25</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -548,6 +588,12 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,13 +602,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>34962</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006265638345310618</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2039683.08</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -573,6 +629,12 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -581,13 +643,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>68626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.006872407710015588</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2237207.6</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -598,6 +670,12 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -606,60 +684,78 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>46638</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80.86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E5" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01069566346710458</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3481810.248361187</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>FTNT UW Equity</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>FTNT US 11/15/24 C90 Equity</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>80.86</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>90</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>FTNT US 11/15/24 C90 Equity</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="O5" t="n">
         <v>0.237577</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>0.02337</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
         <v>1.4</v>
       </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
         <v>1.35</v>
       </c>
-      <c r="N5" t="n">
+      <c r="S5" t="n">
+        <v>100</v>
+      </c>
+      <c r="T5" t="n">
         <v>712</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>88.94600000000001</v>
       </c>
-      <c r="P5" t="n">
+      <c r="V5" t="n">
         <v>0.113034875092753</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.80311649765026</v>
+      <c r="W5" t="n">
+        <v>1.78569696767143</v>
       </c>
     </row>
     <row r="6">
@@ -669,60 +765,78 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="C6" t="inlineStr">
+        <v>6005</v>
+      </c>
+      <c r="C6" t="n">
+        <v>609.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01124134022126217</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3659447</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>MC FP Equity</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>MC1 FP 11/15/24 C680 Equity</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="K6" t="n">
         <v>628.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>680</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>MC1 FP 11/15/24 C680 Equity</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="O6" t="n">
         <v>0.154895</v>
       </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>0.031242</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>100</v>
+      </c>
+      <c r="T6" t="n">
         <v>555</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>691.35</v>
       </c>
-      <c r="P6" t="n">
+      <c r="V6" t="n">
         <v>0.08194112967382661</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.6005091487669052</v>
+      <c r="W6" t="n">
+        <v>0.5956032289069695</v>
       </c>
     </row>
     <row r="7">
@@ -732,60 +846,78 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="C7" t="inlineStr">
+        <v>6061</v>
+      </c>
+      <c r="C7" t="n">
+        <v>634.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01180791320273654</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3843886.2</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>ASML NA Equity</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>ASM GR 11/15/24 C720 Equity</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
         <v>653.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="L7" t="n">
         <v>720</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>ASM GR 11/15/24 C720 Equity</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v>0.221049</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.025573</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>0.235091</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02633</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>100</v>
+      </c>
+      <c r="T7" t="n">
         <v>102</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>719.2900000000001</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>0.1010857929346995</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.656063618290258</v>
+      <c r="W7" t="n">
+        <v>1.787709752364149</v>
       </c>
     </row>
     <row r="8">
@@ -795,13 +927,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>75641</v>
+      </c>
+      <c r="C8" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0125613389180035</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4089152.46</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -812,6 +954,12 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,13 +968,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+        <v>116501</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01287279109518678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4190540.97</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -837,6 +995,12 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -845,60 +1009,78 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0148</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>7544</v>
+      </c>
+      <c r="C10" t="n">
+        <v>687.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E10" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01471306662587412</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4789614.624688396</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>NFLX UW Equity</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>NFLX US 11/15/24 C755 Equity</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="K10" t="n">
         <v>687.65</v>
       </c>
-      <c r="G10" t="n">
+      <c r="L10" t="n">
         <v>755</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>NFLX US 11/15/24 C755 Equity</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="O10" t="n">
         <v>0.247886</v>
       </c>
-      <c r="K10" t="n">
+      <c r="P10" t="n">
         <v>0.027</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="n">
         <v>13.3</v>
       </c>
-      <c r="M10" t="n">
+      <c r="R10" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="N10" t="n">
+      <c r="S10" t="n">
+        <v>100</v>
+      </c>
+      <c r="T10" t="n">
         <v>156</v>
       </c>
-      <c r="O10" t="n">
+      <c r="U10" t="n">
         <v>756.4150000000001</v>
       </c>
-      <c r="P10" t="n">
+      <c r="V10" t="n">
         <v>0.0979422671417145</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.141496400785283</v>
+      <c r="W10" t="n">
+        <v>2.12891751512321</v>
       </c>
     </row>
     <row r="11">
@@ -908,13 +1090,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>120813</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40.735</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01511764071801699</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4921317.555</v>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -925,6 +1117,12 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -933,13 +1131,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>1316997</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0153572558571447</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4999320.612</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -950,6 +1158,12 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -958,60 +1172,78 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>45877</v>
+      </c>
+      <c r="C13" t="n">
+        <v>816.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.134073418604028</v>
+      </c>
+      <c r="E13" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01542942350990102</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5022813.691577524</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>NOVOB DC Equity</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>NOVOB DC 11/15/24 C900 Equity</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="K13" t="n">
         <v>807.9</v>
       </c>
-      <c r="G13" t="n">
+      <c r="L13" t="n">
         <v>900</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="M13" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>NOVOB DC 11/15/24 C900 Equity</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>0.204877</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="L13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
+        <v>0.201383</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.023579</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100</v>
+      </c>
+      <c r="T13" t="n">
         <v>523</v>
       </c>
-      <c r="O13" t="n">
+      <c r="U13" t="n">
         <v>888.6900000000001</v>
       </c>
-      <c r="P13" t="n">
+      <c r="V13" t="n">
         <v>0.1139992573338284</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.419730164624335</v>
+      <c r="W13" t="n">
+        <v>1.451462045738925</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +1253,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+        <v>11899</v>
+      </c>
+      <c r="C14" t="n">
+        <v>460.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E14" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01552429232006083</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5053696.787000279</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1038,6 +1280,12 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1046,60 +1294,78 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>6069</v>
+      </c>
+      <c r="C15" t="n">
+        <v>917.12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E15" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01578619184761321</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5138954.187055675</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>LLY UN Equity</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>LLY US 11/15/24 C1010 Equity</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="K15" t="n">
         <v>917.12</v>
       </c>
-      <c r="G15" t="n">
+      <c r="L15" t="n">
         <v>1010</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="M15" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>LLY US 11/15/24 C1010 Equity</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="O15" t="n">
         <v>0.218449</v>
       </c>
-      <c r="K15" t="n">
+      <c r="P15" t="n">
         <v>0.026675</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Q15" t="n">
         <v>12.6</v>
       </c>
-      <c r="M15" t="n">
+      <c r="R15" t="n">
         <v>11.3</v>
       </c>
-      <c r="N15" t="n">
+      <c r="S15" t="n">
+        <v>100</v>
+      </c>
+      <c r="T15" t="n">
         <v>229</v>
       </c>
-      <c r="O15" t="n">
+      <c r="U15" t="n">
         <v>1008.832</v>
       </c>
-      <c r="P15" t="n">
+      <c r="V15" t="n">
         <v>0.1012735519888346</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.959067515701326</v>
+      <c r="W15" t="n">
+        <v>1.945045009137619</v>
       </c>
     </row>
     <row r="16">
@@ -1109,13 +1375,23 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+        <v>52506</v>
+      </c>
+      <c r="C16" t="n">
+        <v>85.98</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.201258919347476</v>
+      </c>
+      <c r="E16" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01665887351357733</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5423042.404439854</v>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1126,6 +1402,12 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1134,13 +1416,23 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>37407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1081.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.134073418604028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01666190741819276</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5424030.045853126</v>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1151,21 +1443,37 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PROCTER &amp; GAMBLE CO/THE</t>
+          <t>REGENERON PHARMACEUTICALS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>6075</v>
+      </c>
+      <c r="C18" t="n">
+        <v>998.23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E18" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01719930802816143</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5598972.624873051</v>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1176,21 +1484,37 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REGENERON PHARMACEUTICALS</t>
+          <t>PROCTER &amp; GAMBLE CO/THE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>35233</v>
+      </c>
+      <c r="C19" t="n">
+        <v>172.26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E19" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01721345867538713</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5603579.152432834</v>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1201,6 +1525,12 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1209,13 +1539,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>1929</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3158</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E20" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01727740158655459</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5624394.792724589</v>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1226,6 +1566,12 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1234,13 +1580,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>29974</v>
+      </c>
+      <c r="C21" t="n">
+        <v>209.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E21" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01781420487581653</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5799142.923091129</v>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1251,6 +1607,12 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1259,13 +1621,23 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0181</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>46454</v>
+      </c>
+      <c r="C22" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.201258919347476</v>
+      </c>
+      <c r="E22" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01798199445909884</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5853764.264949667</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1276,6 +1648,12 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1284,60 +1662,78 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0182</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>33808</v>
+      </c>
+      <c r="C23" t="n">
+        <v>188.57</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E23" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01808115442369843</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5886044.280306529</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>ABBV UN Equity</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>ABBV US 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="K23" t="n">
         <v>188.57</v>
       </c>
-      <c r="G23" t="n">
+      <c r="L23" t="n">
         <v>200</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="M23" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>ABBV US 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="O23" t="n">
         <v>0.265636</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
         <v>0.039799</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
         <v>2.41</v>
       </c>
-      <c r="M23" t="n">
+      <c r="R23" t="n">
         <v>2.3</v>
       </c>
-      <c r="N23" t="n">
+      <c r="S23" t="n">
+        <v>100</v>
+      </c>
+      <c r="T23" t="n">
         <v>2732</v>
       </c>
-      <c r="O23" t="n">
+      <c r="U23" t="n">
         <v>207.427</v>
       </c>
-      <c r="P23" t="n">
+      <c r="V23" t="n">
         <v>0.06061409556133013</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.219865302009864</v>
+      <c r="W23" t="n">
+        <v>2.205369633266499</v>
       </c>
     </row>
     <row r="24">
@@ -1347,13 +1743,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>40973</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120.24</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.201258919347476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01817966964067291</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5918114.407899478</v>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1364,6 +1770,12 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1372,60 +1784,78 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0184</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>370466</v>
+      </c>
+      <c r="C25" t="n">
+        <v>184</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.087608634707037</v>
+      </c>
+      <c r="E25" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01834491576553443</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5971907.7656294</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>ATCOA SS Equity</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>ATCOA SS 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="K25" t="n">
         <v>184.25</v>
       </c>
-      <c r="G25" t="n">
+      <c r="L25" t="n">
         <v>200</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="M25" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>ATCOA SS 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="O25" t="n">
         <v>0.221484</v>
       </c>
-      <c r="K25" t="n">
+      <c r="P25" t="n">
         <v>0.031876</v>
       </c>
-      <c r="L25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.55</v>
       </c>
-      <c r="N25" t="n">
+      <c r="S25" t="n">
+        <v>100</v>
+      </c>
+      <c r="T25" t="n">
         <v>1008</v>
       </c>
-      <c r="O25" t="n">
+      <c r="U25" t="n">
         <v>202.675</v>
       </c>
-      <c r="P25" t="n">
+      <c r="V25" t="n">
         <v>0.08548168249660781</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.547896879240163</v>
+      <c r="W25" t="n">
+        <v>1.543262927358392</v>
       </c>
     </row>
     <row r="26">
@@ -1435,13 +1865,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>426292</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01842484785729217</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5997928.44</v>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1452,6 +1892,12 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1460,13 +1906,23 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>16720</v>
+      </c>
+      <c r="C27" t="n">
+        <v>372.15</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01911423525005014</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6222348</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1477,94 +1933,134 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HERMES INTERNATIONAL</t>
+          <t>MASTERCARD INC - A</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+        <v>13143</v>
+      </c>
+      <c r="C28" t="n">
+        <v>513.76</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E28" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01915088598367443</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6234279.08780353</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>MA UN Equity</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>MA US 11/15/24 C550 Equity</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>513.76</v>
+      </c>
+      <c r="L28" t="n">
+        <v>550</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>MA US 11/15/24 C550 Equity</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0.150935</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.038506</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100</v>
+      </c>
+      <c r="T28" t="n">
+        <v>107</v>
+      </c>
+      <c r="U28" t="n">
+        <v>565.1360000000001</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.07053877296792277</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7529739506194011</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MASTERCARD INC - A</t>
+          <t>HERMES INTERNATIONAL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0193</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MA UN Equity</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MA US 11/15/24 C550 Equity</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
+        <v>3025</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2067</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>325534760.8</v>
       </c>
       <c r="F29" t="n">
-        <v>513.76</v>
+        <v>0.01920739580815911</v>
       </c>
       <c r="G29" t="n">
-        <v>550</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>MA US 11/15/24 C550 Equity</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0.150935</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.038506</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>107</v>
-      </c>
-      <c r="O29" t="n">
-        <v>565.1360000000001</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.07053877296792277</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.7588368109623169</v>
-      </c>
+        <v>6252675</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1573,13 +2069,23 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+        <v>39644</v>
+      </c>
+      <c r="C30" t="n">
+        <v>160.95</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01960067731114016</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6380701.8</v>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1590,6 +2096,12 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1598,13 +2110,23 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>14251</v>
+      </c>
+      <c r="C31" t="n">
+        <v>486.11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E31" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01964780186361823</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6396042.479918754</v>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1615,94 +2137,134 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COCA-COLA CO/THE</t>
+          <t>SALESFORCE INC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+        <v>24197</v>
+      </c>
+      <c r="C32" t="n">
+        <v>291.11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E32" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01997803286833484</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6503544.151047921</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CRM US Equity</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CRM US 11/15/24 C310 Equity</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>291.11</v>
+      </c>
+      <c r="L32" t="n">
+        <v>310</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>CRM US 11/15/24 C310 Equity</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>0.210993</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.041053</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1039</v>
+      </c>
+      <c r="U32" t="n">
+        <v>320.2210000000001</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.06488956064717799</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.626462089861343</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SALESFORCE INC</t>
+          <t>COCA-COLA CO/THE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CRM US Equity</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>CRM US 11/15/24 C310 Equity</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
+        <v>100878</v>
+      </c>
+      <c r="C33" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E33" t="n">
+        <v>325534760.8</v>
       </c>
       <c r="F33" t="n">
-        <v>291.11</v>
+        <v>0.0199989739021631</v>
       </c>
       <c r="G33" t="n">
-        <v>310</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CRM US 11/15/24 C310 Equity</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0.210993</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.041053</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1039</v>
-      </c>
-      <c r="O33" t="n">
-        <v>320.2210000000001</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.06488956064717799</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.636391741953213</v>
-      </c>
+        <v>6510361.185486107</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1711,13 +2273,23 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>21726</v>
+      </c>
+      <c r="C34" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02020202138732706</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6576460.2</v>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1728,6 +2300,12 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1736,13 +2314,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>36397</v>
+      </c>
+      <c r="C35" t="n">
+        <v>195.74</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E35" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02020594875436125</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6577738.694488047</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1753,6 +2341,12 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1761,186 +2355,240 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0204</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>15350</v>
+      </c>
+      <c r="C36" t="n">
+        <v>465.72</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E36" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02027530253327592</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6600315.76031761</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>BRK/B UN Equity</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>BRKB US 11/15/24 C490 Equity</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="K36" t="n">
         <v>465.85</v>
       </c>
-      <c r="G36" t="n">
+      <c r="L36" t="n">
         <v>490</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="M36" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>BRKB US 11/15/24 C490 Equity</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="O36" t="n">
         <v>0.171691</v>
       </c>
-      <c r="K36" t="n">
+      <c r="P36" t="n">
         <v>0.053104</v>
       </c>
-      <c r="L36" t="n">
+      <c r="Q36" t="n">
         <v>2.15</v>
       </c>
-      <c r="M36" t="n">
+      <c r="R36" t="n">
         <v>2.01</v>
       </c>
-      <c r="N36" t="n">
+      <c r="S36" t="n">
+        <v>100</v>
+      </c>
+      <c r="T36" t="n">
         <v>745</v>
       </c>
-      <c r="O36" t="n">
+      <c r="U36" t="n">
         <v>512.4350000000001</v>
       </c>
-      <c r="P36" t="n">
+      <c r="V36" t="n">
         <v>0.05184072126220873</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0.8801974884619512</v>
+      <c r="W36" t="n">
+        <v>0.8748171748821421</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Republic Services Inc</t>
+          <t>SAP SE</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>RSG UN Equity</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>RSG US 11/15/24 C220 Equity</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+        <v>31606</v>
+      </c>
+      <c r="C37" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02054413354679756</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6687829.6</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SAP GY Equity</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SAP GR 11/15/24 C230 Equity</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>205.62</v>
-      </c>
-      <c r="G37" t="n">
-        <v>220</v>
-      </c>
-      <c r="H37" s="2" t="n">
+      <c r="K37" t="n">
+        <v>211.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>230</v>
+      </c>
+      <c r="M37" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>RSG US 11/15/24 C220 Equity</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0.163884</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.041848</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N37" t="n">
-        <v>164</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>SAP GR 11/15/24 C230 Equity</t>
+        </is>
       </c>
       <c r="O37" t="n">
-        <v>226.182</v>
+        <v>0.199885</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0699348312420971</v>
+        <v>0.030063</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5536912751677853</v>
+        <v>2.47</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S37" t="n">
+        <v>100</v>
+      </c>
+      <c r="T37" t="n">
+        <v>184</v>
+      </c>
+      <c r="U37" t="n">
+        <v>232.595</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.08772759517616469</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.87515619509668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SAP SE</t>
+          <t>Republic Services Inc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SAP GY Equity</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>SAP GR 11/15/24 C230 Equity</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+        <v>35289</v>
+      </c>
+      <c r="C38" t="n">
+        <v>205.62</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E38" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02057968775306948</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6699403.730034163</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>RSG UN Equity</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RSG US 11/15/24 C220 Equity</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>211.45</v>
-      </c>
-      <c r="G38" t="n">
-        <v>230</v>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="K38" t="n">
+        <v>205.62</v>
+      </c>
+      <c r="L38" t="n">
+        <v>220</v>
+      </c>
+      <c r="M38" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>SAP GR 11/15/24 C230 Equity</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0.199885</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.030063</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N38" t="n">
-        <v>184</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>RSG US 11/15/24 C220 Equity</t>
+        </is>
       </c>
       <c r="O38" t="n">
-        <v>232.595</v>
+        <v>0.163884</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08772759517616469</v>
+        <v>0.041848</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.899172381177583</v>
+        <v>1.25</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S38" t="n">
+        <v>100</v>
+      </c>
+      <c r="T38" t="n">
+        <v>164</v>
+      </c>
+      <c r="U38" t="n">
+        <v>226.182</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0699348312420971</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.5504731185773862</v>
       </c>
     </row>
     <row r="39">
@@ -1950,60 +2598,78 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>112278</v>
+      </c>
+      <c r="C39" t="n">
+        <v>59.78</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02061831683813227</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6711978.84</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>TTE FP Equity</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="K39" t="n">
         <v>60.31</v>
       </c>
-      <c r="G39" t="n">
+      <c r="L39" t="n">
         <v>64</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="M39" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="J39" t="n">
-        <v>0.199887</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.043528</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
+        <v>0.190993</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.041828</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S39" t="n">
+        <v>100</v>
+      </c>
+      <c r="T39" t="n">
         <v>464</v>
       </c>
-      <c r="O39" t="n">
+      <c r="U39" t="n">
         <v>66.34100000000001</v>
       </c>
-      <c r="P39" t="n">
+      <c r="V39" t="n">
         <v>0.06118388326977287</v>
       </c>
-      <c r="Q39" t="n">
-        <v>1.269938650306748</v>
+      <c r="W39" t="n">
+        <v>1.162365731216211</v>
       </c>
     </row>
     <row r="40">
@@ -2013,60 +2679,78 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>40750</v>
+      </c>
+      <c r="C40" t="n">
+        <v>181.53</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E40" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02098022277107021</v>
+      </c>
+      <c r="G40" t="n">
+        <v>6829791.801311054</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>AVGO UW Equity</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>AVGO US 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="K40" t="n">
         <v>181.53</v>
       </c>
-      <c r="G40" t="n">
+      <c r="L40" t="n">
         <v>200</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="M40" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>AVGO US 11/15/24 C200 Equity</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="O40" t="n">
         <v>0.234442</v>
       </c>
-      <c r="K40" t="n">
+      <c r="P40" t="n">
         <v>0.025852</v>
       </c>
-      <c r="L40" t="n">
+      <c r="Q40" t="n">
         <v>2.79</v>
       </c>
-      <c r="M40" t="n">
+      <c r="R40" t="n">
         <v>2.75</v>
       </c>
-      <c r="N40" t="n">
+      <c r="S40" t="n">
+        <v>100</v>
+      </c>
+      <c r="T40" t="n">
         <v>7122</v>
       </c>
-      <c r="O40" t="n">
+      <c r="U40" t="n">
         <v>199.683</v>
       </c>
-      <c r="P40" t="n">
+      <c r="V40" t="n">
         <v>0.1017462678345178</v>
       </c>
-      <c r="Q40" t="n">
-        <v>3.196441359554894</v>
+      <c r="W40" t="n">
+        <v>3.178296293749963</v>
       </c>
     </row>
     <row r="41">
@@ -2076,60 +2760,78 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>54613</v>
+      </c>
+      <c r="C41" t="n">
+        <v>136.93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E41" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02120941630029966</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6904402.26202567</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>NVDA UW Equity</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>NVDA US 11/15/24 C150 Equity</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="K41" t="n">
         <v>136.93</v>
       </c>
-      <c r="G41" t="n">
+      <c r="L41" t="n">
         <v>150</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="M41" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>NVDA US 11/15/24 C150 Equity</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="O41" t="n">
         <v>0.282643</v>
       </c>
-      <c r="K41" t="n">
+      <c r="P41" t="n">
         <v>0.0249</v>
       </c>
-      <c r="L41" t="n">
+      <c r="Q41" t="n">
         <v>3.05</v>
       </c>
-      <c r="M41" t="n">
+      <c r="R41" t="n">
         <v>3</v>
       </c>
-      <c r="N41" t="n">
+      <c r="S41" t="n">
+        <v>100</v>
+      </c>
+      <c r="T41" t="n">
         <v>58805</v>
       </c>
-      <c r="O41" t="n">
+      <c r="U41" t="n">
         <v>150.623</v>
       </c>
-      <c r="P41" t="n">
+      <c r="V41" t="n">
         <v>0.09545023004454833</v>
       </c>
-      <c r="Q41" t="n">
-        <v>4.666617979989775</v>
+      <c r="W41" t="n">
+        <v>4.64677199305477</v>
       </c>
     </row>
     <row r="42">
@@ -2139,60 +2841,78 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>143456</v>
+      </c>
+      <c r="C42" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.066098081023454</v>
+      </c>
+      <c r="E42" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02365003133057388</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7698907.292110873</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>ABBN SE Equity</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>ABBN SW 11/15/24 C52 Equity</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="K42" t="n">
         <v>49.43</v>
       </c>
-      <c r="G42" t="n">
+      <c r="L42" t="n">
         <v>52</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="M42" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>ABBN SW 11/15/24 C52 Equity</t>
         </is>
       </c>
-      <c r="J42" t="n">
-        <v>0.212936</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.048257</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
+        <v>0.208591</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.047763</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S42" t="n">
+        <v>100</v>
+      </c>
+      <c r="T42" t="n">
         <v>2104</v>
       </c>
-      <c r="O42" t="n">
+      <c r="U42" t="n">
         <v>54.373</v>
       </c>
-      <c r="P42" t="n">
+      <c r="V42" t="n">
         <v>0.05199271697349794</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.107424640906332</v>
+      <c r="W42" t="n">
+        <v>1.052601030290563</v>
       </c>
     </row>
     <row r="43">
@@ -2202,60 +2922,78 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0246</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>14269</v>
+      </c>
+      <c r="C43" t="n">
+        <v>524.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.066098081023454</v>
+      </c>
+      <c r="E43" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02451441964598846</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7980295.735607674</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>GEBN SE Equity</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>GEBN SW 11/15/24 C560 Equity</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="K43" t="n">
         <v>529.8</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>560</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="M43" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>GEBN SW 11/15/24 C560 Equity</t>
         </is>
       </c>
-      <c r="J43" t="n">
-        <v>0.227052</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.050146</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
+        <v>0.205658</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.042711</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="n">
         <v>366</v>
       </c>
-      <c r="O43" t="n">
+      <c r="U43" t="n">
         <v>582.78</v>
       </c>
-      <c r="P43" t="n">
+      <c r="V43" t="n">
         <v>0.05700264250660636</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1.067950169875425</v>
+      <c r="W43" t="n">
+        <v>1.087370444848488</v>
       </c>
     </row>
     <row r="44">
@@ -2265,13 +3003,23 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0253</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>39485</v>
+      </c>
+      <c r="C44" t="n">
+        <v>224.42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E44" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02513204189073002</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8181353.245314377</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2282,6 +3030,12 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2290,13 +3044,23 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0257</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+        <v>18538</v>
+      </c>
+      <c r="C45" t="n">
+        <v>448.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02552333145493076</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8308731.6</v>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2307,6 +3071,12 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2315,13 +3085,23 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0262</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+        <v>16828</v>
+      </c>
+      <c r="C46" t="n">
+        <v>504.4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02607415312312785</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8488043.199999999</v>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2332,6 +3112,12 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2340,13 +3126,23 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+        <v>33025</v>
+      </c>
+      <c r="C47" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.066098081023454</v>
+      </c>
+      <c r="E47" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02753601043833157</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8963928.571428571</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2357,6 +3153,12 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2365,60 +3167,78 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0292</v>
-      </c>
-      <c r="C48" t="inlineStr">
+        <v>62755</v>
+      </c>
+      <c r="C48" t="n">
+        <v>162.93</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E48" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02899902964787816</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9440192.179854127</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>GOOGL US Equity</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>GOOGL US 11/15/24 C180 Equity</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="K48" t="n">
         <v>162.93</v>
       </c>
-      <c r="G48" t="n">
+      <c r="L48" t="n">
         <v>180</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="M48" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>GOOGL US 11/15/24 C180 Equity</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="O48" t="n">
         <v>0.17296</v>
       </c>
-      <c r="K48" t="n">
+      <c r="P48" t="n">
         <v>0.026908</v>
       </c>
-      <c r="L48" t="n">
+      <c r="Q48" t="n">
         <v>1.38</v>
       </c>
-      <c r="M48" t="n">
+      <c r="R48" t="n">
         <v>1.31</v>
       </c>
-      <c r="N48" t="n">
+      <c r="S48" t="n">
+        <v>100</v>
+      </c>
+      <c r="T48" t="n">
         <v>15347</v>
       </c>
-      <c r="O48" t="n">
+      <c r="U48" t="n">
         <v>179.223</v>
       </c>
-      <c r="P48" t="n">
+      <c r="V48" t="n">
         <v>0.1047689191677408</v>
       </c>
-      <c r="Q48" t="n">
-        <v>2.347756705333579</v>
+      <c r="W48" t="n">
+        <v>2.331598161094973</v>
       </c>
     </row>
     <row r="49">
@@ -2428,60 +3248,78 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0304</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>25613</v>
+      </c>
+      <c r="C49" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E49" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.03027184342881509</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9854537.309574373</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>MSFT UW Equity</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>MSFT US 11/15/24 C450 Equity</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="K49" t="n">
         <v>416.72</v>
       </c>
-      <c r="G49" t="n">
+      <c r="L49" t="n">
         <v>450</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="M49" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>MSFT US 11/15/24 C450 Equity</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="O49" t="n">
         <v>0.183216</v>
       </c>
-      <c r="K49" t="n">
+      <c r="P49" t="n">
         <v>0.034381</v>
       </c>
-      <c r="L49" t="n">
+      <c r="Q49" t="n">
         <v>3.2</v>
       </c>
-      <c r="M49" t="n">
+      <c r="R49" t="n">
         <v>3.05</v>
       </c>
-      <c r="N49" t="n">
+      <c r="S49" t="n">
+        <v>100</v>
+      </c>
+      <c r="T49" t="n">
         <v>7269</v>
       </c>
-      <c r="O49" t="n">
+      <c r="U49" t="n">
         <v>458.3920000000001</v>
       </c>
-      <c r="P49" t="n">
+      <c r="V49" t="n">
         <v>0.07986177769245528</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2.224995200614321</v>
+      <c r="W49" t="n">
+        <v>2.215615340225716</v>
       </c>
     </row>
     <row r="50">
@@ -2491,60 +3329,78 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0314</v>
-      </c>
-      <c r="C50" t="inlineStr">
+        <v>41085</v>
+      </c>
+      <c r="C50" t="n">
+        <v>247.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03123010035860969</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10166483.25</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>SU FP Equity</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>SU1 FP 11/15/24 C260 Equity</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="K50" t="n">
         <v>247</v>
       </c>
-      <c r="G50" t="n">
+      <c r="L50" t="n">
         <v>260</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="M50" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>SU1 FP 11/15/24 C260 Equity</t>
         </is>
       </c>
-      <c r="J50" t="n">
-        <v>0.277008</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.043299</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
+        <v>0.258078</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.040165</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S50" t="n">
+        <v>100</v>
+      </c>
+      <c r="T50" t="n">
         <v>309</v>
       </c>
-      <c r="O50" t="n">
+      <c r="U50" t="n">
         <v>271.7</v>
       </c>
-      <c r="P50" t="n">
+      <c r="V50" t="n">
         <v>0.05263157894736836</v>
       </c>
-      <c r="Q50" t="n">
-        <v>3.99174089068826</v>
+      <c r="W50" t="n">
+        <v>3.426460403717905</v>
       </c>
     </row>
     <row r="51">
@@ -2554,60 +3410,78 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0321</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>48498</v>
+      </c>
+      <c r="C51" t="n">
+        <v>232.15</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E51" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03193203464124255</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10394987.25879421</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>AAPL UW Equity</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>AAPL US 11/15/24 C245 Equity</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="K51" t="n">
         <v>232.15</v>
       </c>
-      <c r="G51" t="n">
+      <c r="L51" t="n">
         <v>245</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="M51" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>AAPL US 11/15/24 C245 Equity</t>
         </is>
       </c>
-      <c r="J51" t="n">
+      <c r="O51" t="n">
         <v>0.230449</v>
       </c>
-      <c r="K51" t="n">
+      <c r="P51" t="n">
         <v>0.045959</v>
       </c>
-      <c r="L51" t="n">
+      <c r="Q51" t="n">
         <v>2.04</v>
       </c>
-      <c r="M51" t="n">
+      <c r="R51" t="n">
         <v>1.98</v>
       </c>
-      <c r="N51" t="n">
+      <c r="S51" t="n">
+        <v>100</v>
+      </c>
+      <c r="T51" t="n">
         <v>66823</v>
       </c>
-      <c r="O51" t="n">
+      <c r="U51" t="n">
         <v>255.365</v>
       </c>
-      <c r="P51" t="n">
+      <c r="V51" t="n">
         <v>0.05535214301098423</v>
       </c>
-      <c r="Q51" t="n">
-        <v>2.737798836958862</v>
+      <c r="W51" t="n">
+        <v>2.72347312468922</v>
       </c>
     </row>
     <row r="52">
@@ -2617,117 +3491,143 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0323</v>
-      </c>
-      <c r="C52" t="inlineStr">
+        <v>60448</v>
+      </c>
+      <c r="C52" t="n">
+        <v>187.53</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.923275782476226</v>
+      </c>
+      <c r="E52" t="n">
+        <v>325534760.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03215042841538697</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10466082.02382052</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>AMZN UW Equity</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>AMZN US 11/15/24 C205 Equity</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>CALL</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="K52" t="n">
         <v>187.53</v>
       </c>
-      <c r="G52" t="n">
+      <c r="L52" t="n">
         <v>205</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>AMZN US 11/15/24 C205 Equity</t>
         </is>
       </c>
-      <c r="J52" t="n">
+      <c r="O52" t="n">
         <v>0.214692</v>
       </c>
-      <c r="K52" t="n">
+      <c r="P52" t="n">
         <v>0.029037</v>
       </c>
-      <c r="L52" t="n">
+      <c r="Q52" t="n">
         <v>2.2</v>
       </c>
-      <c r="M52" t="n">
+      <c r="R52" t="n">
         <v>2.1</v>
       </c>
-      <c r="N52" t="n">
+      <c r="S52" t="n">
+        <v>100</v>
+      </c>
+      <c r="T52" t="n">
         <v>20745</v>
       </c>
-      <c r="O52" t="n">
+      <c r="U52" t="n">
         <v>206.283</v>
       </c>
-      <c r="P52" t="n">
+      <c r="V52" t="n">
         <v>0.09315842798485585</v>
       </c>
-      <c r="Q52" t="n">
-        <v>3.617021276595744</v>
+      <c r="W52" t="n">
+        <v>3.600271939013099</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>SPX Index</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>SPXW US 11/15/24 P5260 Index</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="K53" t="n">
         <v>5841.47</v>
       </c>
-      <c r="G53" t="n">
+      <c r="L53" t="n">
         <v>5260</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="M53" s="2" t="n">
         <v>45611</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>SPXW US 11/15/24 P5260 Index</t>
         </is>
       </c>
-      <c r="J53" t="n">
-        <v>-0.059732</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.016263</v>
-      </c>
-      <c r="L53" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
+        <v>-0.059333</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.016196</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
         <v>190</v>
       </c>
-      <c r="O53" t="n">
+      <c r="U53" t="n">
         <v>5257.323</v>
       </c>
-      <c r="P53" t="n">
+      <c r="V53" t="n">
         <v>-0.09954172494252311</v>
       </c>
-      <c r="Q53" t="n">
-        <v>-19.34444583298382</v>
+      <c r="W53" t="n">
+        <v>-19.17325604685122</v>
       </c>
     </row>
   </sheetData>

--- a/port.xlsx
+++ b/port.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SECURITY_x</t>
+          <t>SECURITY_x.1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         <v>0.113034875092753</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78569696767143</v>
+        <v>0.01785696967671429</v>
       </c>
     </row>
     <row r="6">
@@ -836,7 +836,7 @@
         <v>0.08194112967382661</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5956032289069695</v>
+        <v>0.006142708063144574</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +917,7 @@
         <v>0.1010857929346995</v>
       </c>
       <c r="W7" t="n">
-        <v>1.787709752364149</v>
+        <v>0.01843240944608825</v>
       </c>
     </row>
     <row r="8">
@@ -1080,7 +1080,7 @@
         <v>0.0979422671417145</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12891751512321</v>
+        <v>0.0212891751512321</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1243,7 @@
         <v>0.1139992573338284</v>
       </c>
       <c r="W13" t="n">
-        <v>1.451462045738925</v>
+        <v>0.01435998269351551</v>
       </c>
     </row>
     <row r="14">
@@ -1365,7 +1365,7 @@
         <v>0.1012735519888346</v>
       </c>
       <c r="W15" t="n">
-        <v>1.945045009137619</v>
+        <v>0.01945045009137618</v>
       </c>
     </row>
     <row r="16">
@@ -1733,7 +1733,7 @@
         <v>0.06061409556133013</v>
       </c>
       <c r="W23" t="n">
-        <v>2.205369633266499</v>
+        <v>0.02205369633266499</v>
       </c>
     </row>
     <row r="24">
@@ -1855,7 +1855,7 @@
         <v>0.08548168249660781</v>
       </c>
       <c r="W25" t="n">
-        <v>1.543262927358392</v>
+        <v>0.01545359751987954</v>
       </c>
     </row>
     <row r="26">
@@ -2018,7 +2018,7 @@
         <v>0.07053877296792277</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7529739506194011</v>
+        <v>0.007529739506194012</v>
       </c>
     </row>
     <row r="29">
@@ -2222,7 +2222,7 @@
         <v>0.06488956064717799</v>
       </c>
       <c r="W32" t="n">
-        <v>1.626462089861343</v>
+        <v>0.01626462089861344</v>
       </c>
     </row>
     <row r="33">
@@ -2426,7 +2426,7 @@
         <v>0.05184072126220873</v>
       </c>
       <c r="W36" t="n">
-        <v>0.8748171748821421</v>
+        <v>0.008750613693181435</v>
       </c>
     </row>
     <row r="37">
@@ -2507,7 +2507,7 @@
         <v>0.08772759517616469</v>
       </c>
       <c r="W37" t="n">
-        <v>1.87515619509668</v>
+        <v>0.01873826925582197</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>0.0699348312420971</v>
       </c>
       <c r="W38" t="n">
-        <v>0.5504731185773862</v>
+        <v>0.005504731185773862</v>
       </c>
     </row>
     <row r="39">
@@ -2669,7 +2669,7 @@
         <v>0.06118388326977287</v>
       </c>
       <c r="W39" t="n">
-        <v>1.162365731216211</v>
+        <v>0.01172671081459513</v>
       </c>
     </row>
     <row r="40">
@@ -2750,7 +2750,7 @@
         <v>0.1017462678345178</v>
       </c>
       <c r="W40" t="n">
-        <v>3.178296293749963</v>
+        <v>0.03178296293749963</v>
       </c>
     </row>
     <row r="41">
@@ -2831,7 +2831,7 @@
         <v>0.09545023004454833</v>
       </c>
       <c r="W41" t="n">
-        <v>4.64677199305477</v>
+        <v>0.04646771993054769</v>
       </c>
     </row>
     <row r="42">
@@ -2912,7 +2912,7 @@
         <v>0.05199271697349794</v>
       </c>
       <c r="W42" t="n">
-        <v>1.052601030290563</v>
+        <v>0.01033573081590436</v>
       </c>
     </row>
     <row r="43">
@@ -2993,7 +2993,7 @@
         <v>0.05700264250660636</v>
       </c>
       <c r="W43" t="n">
-        <v>1.087370444848488</v>
+        <v>0.1098148802288846</v>
       </c>
     </row>
     <row r="44">
@@ -3238,7 +3238,7 @@
         <v>0.1047689191677408</v>
       </c>
       <c r="W48" t="n">
-        <v>2.331598161094973</v>
+        <v>0.02331598161094973</v>
       </c>
     </row>
     <row r="49">
@@ -3319,7 +3319,7 @@
         <v>0.07986177769245528</v>
       </c>
       <c r="W49" t="n">
-        <v>2.215615340225716</v>
+        <v>0.02215615340225716</v>
       </c>
     </row>
     <row r="50">
@@ -3400,7 +3400,7 @@
         <v>0.05263157894736836</v>
       </c>
       <c r="W50" t="n">
-        <v>3.426460403717905</v>
+        <v>0.03420229216885523</v>
       </c>
     </row>
     <row r="51">
@@ -3481,7 +3481,7 @@
         <v>0.05535214301098423</v>
       </c>
       <c r="W51" t="n">
-        <v>2.72347312468922</v>
+        <v>0.0272347312468922</v>
       </c>
     </row>
     <row r="52">
@@ -3562,7 +3562,7 @@
         <v>0.09315842798485585</v>
       </c>
       <c r="W52" t="n">
-        <v>3.600271939013099</v>
+        <v>0.03600271939013098</v>
       </c>
     </row>
     <row r="53">
